--- a/build-test/tables/seven_days.xlsx
+++ b/build-test/tables/seven_days.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="SevenDays" sheetId="1" r:id="rId1"/>
+    <sheet name="seven_days" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -478,7 +478,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
